--- a/biology/Botanique/Allolepis_texana/Allolepis_texana.xlsx
+++ b/biology/Botanique/Allolepis_texana/Allolepis_texana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allolepis texana est une espèce végétale de la famille des Poaceae. Selon World Checklist of Selected Plant Families (WCSP)  (29 nov. 2011)[1], NCBI  (29 nov. 2011)[2] et ITIS      (29 nov. 2011)[3], il s'agit de la seule espèce du genre Allolepis.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allolepis texana est une espèce végétale de la famille des Poaceae. Selon World Checklist of Selected Plant Families (WCSP)  (29 nov. 2011), NCBI  (29 nov. 2011) et ITIS      (29 nov. 2011), il s'agit de la seule espèce du genre Allolepis.
 </t>
         </is>
       </c>
